--- a/NEW HR/TORRES, MOISES.xlsx
+++ b/NEW HR/TORRES, MOISES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>3/18,19/2023</t>
   </si>
 </sst>
 </file>
@@ -651,9 +654,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -663,17 +663,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -878,27 +881,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -1119,27 +1122,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -1204,7 +1207,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1247,7 +1250,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1311,7 +1314,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,7 +1374,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1440,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1500,7 +1503,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1601,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,7 +1660,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1722,7 +1725,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1768,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1840,7 +1843,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2026,7 +2029,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2095,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2150,7 +2153,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2219,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2272,7 +2275,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2350,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2393,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2459,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,7 +2515,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2608,25 +2611,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K129" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K129" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2638,25 +2641,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K87" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K87" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2990,7 +2993,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A62" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3012,64 +3015,64 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3102,18 +3105,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3160,7 +3163,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>51.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3170,7 +3173,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4550,20 +4553,30 @@
       <c r="K77" s="21"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="41"/>
+      <c r="A78" s="42">
+        <v>44986</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D78" s="41">
+        <v>2</v>
+      </c>
       <c r="E78" s="10"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="41"/>
       <c r="I78" s="10"/>
       <c r="J78" s="12"/>
-      <c r="K78" s="21"/>
+      <c r="K78" s="21" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="42"/>
@@ -5383,17 +5396,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5429,9 +5442,9 @@
   <dimension ref="A2:K87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="C5" sqref="C5"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5453,64 +5466,64 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5543,18 +5556,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6075,7 +6088,9 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+      <c r="A30" s="50" t="s">
+        <v>72</v>
+      </c>
       <c r="B30" s="21"/>
       <c r="C30" s="14"/>
       <c r="D30" s="41"/>

--- a/NEW HR/TORRES, MOISES.xlsx
+++ b/NEW HR/TORRES, MOISES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>3/18,19/2023</t>
+  </si>
+  <si>
+    <t>05/25-01/30/2023</t>
+  </si>
+  <si>
+    <t>SL(30-0-0)</t>
   </si>
 </sst>
 </file>
@@ -2990,10 +2996,10 @@
   </sheetPr>
   <dimension ref="A2:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A62" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3173,7 +3179,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>48.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4579,7 +4585,10 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
+      <c r="A79" s="42">
+        <f>EDATE(A78,1)</f>
+        <v>45017</v>
+      </c>
       <c r="B79" s="21"/>
       <c r="C79" s="14"/>
       <c r="D79" s="41"/>
@@ -4595,8 +4604,13 @@
       <c r="K79" s="21"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
-      <c r="B80" s="21"/>
+      <c r="A80" s="42">
+        <f>EDATE(A79,1)</f>
+        <v>45047</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="C80" s="14"/>
       <c r="D80" s="41"/>
       <c r="E80" s="10"/>
@@ -4605,13 +4619,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H80" s="41"/>
+      <c r="H80" s="41">
+        <v>30</v>
+      </c>
       <c r="I80" s="10"/>
       <c r="J80" s="12"/>
-      <c r="K80" s="21"/>
+      <c r="K80" s="21" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
+      <c r="A81" s="42">
+        <f>EDATE(A80,1)</f>
+        <v>45078</v>
+      </c>
       <c r="B81" s="21"/>
       <c r="C81" s="14"/>
       <c r="D81" s="41"/>
@@ -5441,10 +5462,10 @@
   </sheetPr>
   <dimension ref="A2:K87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="C5" sqref="C5"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6106,7 +6127,9 @@
       <c r="K30" s="21"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="42">
+        <v>45047</v>
+      </c>
       <c r="B31" s="21"/>
       <c r="C31" s="14"/>
       <c r="D31" s="41"/>

--- a/NEW HR/TORRES, MOISES.xlsx
+++ b/NEW HR/TORRES, MOISES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
   <si>
     <t>PERIOD</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>SL(30-0-0)</t>
+  </si>
+  <si>
+    <t>SL(14-0-0)</t>
+  </si>
+  <si>
+    <t>7/1,2,4-9,11-16/2023</t>
   </si>
 </sst>
 </file>
@@ -663,17 +669,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -683,6 +686,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1213,7 +1219,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1256,7 +1262,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,7 +1326,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1380,7 +1386,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1446,7 +1452,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1515,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +1613,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1666,7 +1672,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1731,7 +1737,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1774,7 +1780,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1849,7 +1855,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2035,7 +2041,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2107,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2159,7 +2165,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2225,7 +2231,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2287,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2356,7 +2362,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2399,7 +2405,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2465,7 +2471,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2521,7 +2527,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2999,7 +3005,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
+      <selection pane="bottomLeft" activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3029,14 +3035,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3048,14 +3054,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3069,16 +3075,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3111,18 +3117,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3169,7 +3175,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>51.75</v>
+        <v>55.5</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3179,7 +3185,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>48.75</v>
+        <v>38.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4590,13 +4596,15 @@
         <v>45017</v>
       </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="41"/>
       <c r="E79" s="10"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="41"/>
       <c r="I79" s="10"/>
@@ -4611,13 +4619,15 @@
       <c r="B80" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="14"/>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="41"/>
       <c r="E80" s="10"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="41">
         <v>30</v>
@@ -4634,13 +4644,15 @@
         <v>45078</v>
       </c>
       <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="41"/>
       <c r="E81" s="10"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="41"/>
       <c r="I81" s="10"/>
@@ -4648,8 +4660,12 @@
       <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
-      <c r="B82" s="21"/>
+      <c r="A82" s="42">
+        <v>45108</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>76</v>
+      </c>
       <c r="C82" s="14"/>
       <c r="D82" s="41"/>
       <c r="E82" s="10"/>
@@ -4658,10 +4674,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="41"/>
+      <c r="H82" s="41">
+        <v>14</v>
+      </c>
       <c r="I82" s="10"/>
       <c r="J82" s="12"/>
-      <c r="K82" s="21"/>
+      <c r="K82" s="21" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="42"/>
@@ -5417,17 +5437,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5465,7 +5485,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="C5" sqref="C5"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5495,14 +5515,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5514,14 +5534,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5535,16 +5555,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5577,18 +5597,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/TORRES, MOISES.xlsx
+++ b/NEW HR/TORRES, MOISES.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="78">
   <si>
     <t>PERIOD</t>
   </si>
@@ -669,14 +669,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -686,9 +689,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1219,7 +1219,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1262,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,7 +1326,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1386,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1452,7 +1452,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1515,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1613,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1672,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1737,7 +1737,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1780,7 +1780,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1855,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2041,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,7 +2107,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2165,7 +2165,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2231,7 +2231,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2287,7 +2287,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2362,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2405,7 +2405,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2471,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,7 +2527,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3005,7 +3005,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="I82" sqref="I82"/>
+      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3035,14 +3035,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3054,14 +3054,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3075,16 +3075,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3117,18 +3117,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3175,7 +3175,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55.5</v>
+        <v>58</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3185,7 +3185,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>38.5</v>
+        <v>41</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4666,13 +4666,15 @@
       <c r="B82" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="14"/>
+      <c r="C82" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="41"/>
       <c r="E82" s="10"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="41">
         <v>14</v>
@@ -4684,15 +4686,19 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
+      <c r="A83" s="42">
+        <v>45139</v>
+      </c>
       <c r="B83" s="21"/>
-      <c r="C83" s="14"/>
+      <c r="C83" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="41"/>
       <c r="E83" s="10"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="41"/>
       <c r="I83" s="10"/>
@@ -4700,7 +4706,9 @@
       <c r="K83" s="21"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
+      <c r="A84" s="42">
+        <v>45170</v>
+      </c>
       <c r="B84" s="21"/>
       <c r="C84" s="14"/>
       <c r="D84" s="41"/>
@@ -4716,7 +4724,9 @@
       <c r="K84" s="21"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
+      <c r="A85" s="42">
+        <v>45200</v>
+      </c>
       <c r="B85" s="21"/>
       <c r="C85" s="14"/>
       <c r="D85" s="41"/>
@@ -4732,7 +4742,9 @@
       <c r="K85" s="21"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
+      <c r="A86" s="42">
+        <v>45231</v>
+      </c>
       <c r="B86" s="21"/>
       <c r="C86" s="14"/>
       <c r="D86" s="41"/>
@@ -5437,17 +5449,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5485,7 +5497,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="C5" sqref="C5"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5515,14 +5527,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5534,14 +5546,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5555,16 +5567,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5597,18 +5609,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5665,7 +5677,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>3.9579999999999984</v>
+        <v>2.9579999999999984</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -6165,8 +6177,12 @@
       <c r="K31" s="21"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="42">
+        <v>45170</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="C32" s="14"/>
       <c r="D32" s="41"/>
       <c r="E32" s="10"/>
@@ -6175,10 +6191,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H32" s="41"/>
+      <c r="H32" s="41">
+        <v>1</v>
+      </c>
       <c r="I32" s="10"/>
       <c r="J32" s="12"/>
-      <c r="K32" s="21"/>
+      <c r="K32" s="51">
+        <v>45188</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
